--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.48464582340509</v>
+        <v>0.037247</v>
       </c>
       <c r="H2">
-        <v>4.48464582340509</v>
+        <v>0.111741</v>
       </c>
       <c r="I2">
-        <v>0.6548787331011963</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="J2">
-        <v>0.6548787331011963</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.36175898593829</v>
+        <v>135.955556</v>
       </c>
       <c r="N2">
-        <v>94.36175898593829</v>
+        <v>407.866668</v>
       </c>
       <c r="O2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q2">
-        <v>423.1790683254459</v>
+        <v>5.063936594332</v>
       </c>
       <c r="R2">
-        <v>423.1790683254459</v>
+        <v>45.575429348988</v>
       </c>
       <c r="S2">
-        <v>0.4162442454912367</v>
+        <v>0.003688509388284357</v>
       </c>
       <c r="T2">
-        <v>0.4162442454912367</v>
+        <v>0.003688509388284357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.48464582340509</v>
+        <v>0.037247</v>
       </c>
       <c r="H3">
-        <v>4.48464582340509</v>
+        <v>0.111741</v>
       </c>
       <c r="I3">
-        <v>0.6548787331011963</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="J3">
-        <v>0.6548787331011963</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.878142231875</v>
+        <v>0.449122</v>
       </c>
       <c r="N3">
-        <v>51.878142231875</v>
+        <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q3">
-        <v>232.6550938861935</v>
+        <v>0.016728447134</v>
       </c>
       <c r="R3">
-        <v>232.6550938861935</v>
+        <v>0.150556024206</v>
       </c>
       <c r="S3">
-        <v>0.2288424718111898</v>
+        <v>1.218479598939706E-05</v>
       </c>
       <c r="T3">
-        <v>0.2288424718111898</v>
+        <v>1.218479598939706E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.48464582340509</v>
+        <v>0.037247</v>
       </c>
       <c r="H4">
-        <v>4.48464582340509</v>
+        <v>0.111741</v>
       </c>
       <c r="I4">
-        <v>0.6548787331011963</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="J4">
-        <v>0.6548787331011963</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21983089207526</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N4">
-        <v>2.21983089207526</v>
+        <v>169.150996</v>
       </c>
       <c r="O4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q4">
-        <v>9.95515533881091</v>
+        <v>2.100122382670667</v>
       </c>
       <c r="R4">
-        <v>9.95515533881091</v>
+        <v>18.901101444036</v>
       </c>
       <c r="S4">
-        <v>0.009792015798769689</v>
+        <v>0.001529703419607826</v>
       </c>
       <c r="T4">
-        <v>0.009792015798769689</v>
+        <v>0.001529703419607826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.36340954429318</v>
+        <v>0.037247</v>
       </c>
       <c r="H5">
-        <v>2.36340954429318</v>
+        <v>0.111741</v>
       </c>
       <c r="I5">
-        <v>0.3451212668988037</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="J5">
-        <v>0.3451212668988037</v>
+        <v>0.005308979963744942</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.36175898593829</v>
+        <v>2.896484</v>
       </c>
       <c r="N5">
-        <v>94.36175898593829</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q5">
-        <v>223.0154818036593</v>
+        <v>0.107885339548</v>
       </c>
       <c r="R5">
-        <v>223.0154818036593</v>
+        <v>0.9709680559319999</v>
       </c>
       <c r="S5">
-        <v>0.2193608283215906</v>
+        <v>7.858235986336173E-05</v>
       </c>
       <c r="T5">
-        <v>0.2193608283215906</v>
+        <v>7.858235986336173E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.36340954429318</v>
+        <v>4.613664666666667</v>
       </c>
       <c r="H6">
-        <v>2.36340954429318</v>
+        <v>13.840994</v>
       </c>
       <c r="I6">
-        <v>0.3451212668988037</v>
+        <v>0.6576060696102054</v>
       </c>
       <c r="J6">
-        <v>0.3451212668988037</v>
+        <v>0.6576060696102054</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.878142231875</v>
+        <v>135.955556</v>
       </c>
       <c r="N6">
-        <v>51.878142231875</v>
+        <v>407.866668</v>
       </c>
       <c r="O6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q6">
-        <v>122.6092964910125</v>
+        <v>627.2533449542213</v>
       </c>
       <c r="R6">
-        <v>122.6092964910125</v>
+        <v>5645.280104587992</v>
       </c>
       <c r="S6">
-        <v>0.1206000436412513</v>
+        <v>0.4568836533786834</v>
       </c>
       <c r="T6">
-        <v>0.1206000436412513</v>
+        <v>0.4568836533786834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.36340954429318</v>
+        <v>4.613664666666667</v>
       </c>
       <c r="H7">
-        <v>2.36340954429318</v>
+        <v>13.840994</v>
       </c>
       <c r="I7">
-        <v>0.3451212668988037</v>
+        <v>0.6576060696102054</v>
       </c>
       <c r="J7">
-        <v>0.3451212668988037</v>
+        <v>0.6576060696102054</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.21983089207526</v>
+        <v>0.449122</v>
       </c>
       <c r="N7">
-        <v>2.21983089207526</v>
+        <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q7">
-        <v>5.246369517047514</v>
+        <v>2.072098302422667</v>
       </c>
       <c r="R7">
-        <v>5.246369517047514</v>
+        <v>18.648884721804</v>
       </c>
       <c r="S7">
-        <v>0.005160394935961806</v>
+        <v>0.001509291022815876</v>
       </c>
       <c r="T7">
-        <v>0.005160394935961806</v>
+        <v>0.001509291022815876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.613664666666667</v>
+      </c>
+      <c r="H8">
+        <v>13.840994</v>
+      </c>
+      <c r="I8">
+        <v>0.6576060696102054</v>
+      </c>
+      <c r="J8">
+        <v>0.6576060696102054</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N8">
+        <v>169.150996</v>
+      </c>
+      <c r="O8">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P8">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q8">
+        <v>260.1353245255582</v>
+      </c>
+      <c r="R8">
+        <v>2341.217920730024</v>
+      </c>
+      <c r="S8">
+        <v>0.1894793840449916</v>
+      </c>
+      <c r="T8">
+        <v>0.1894793840449915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.613664666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.840994</v>
+      </c>
+      <c r="I9">
+        <v>0.6576060696102054</v>
+      </c>
+      <c r="J9">
+        <v>0.6576060696102054</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.896484</v>
+      </c>
+      <c r="N9">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P9">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q9">
+        <v>13.36340588836533</v>
+      </c>
+      <c r="R9">
+        <v>120.270652995288</v>
+      </c>
+      <c r="S9">
+        <v>0.009733741163714577</v>
+      </c>
+      <c r="T9">
+        <v>0.009733741163714577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.364937</v>
+      </c>
+      <c r="H10">
+        <v>7.094811</v>
+      </c>
+      <c r="I10">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="J10">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>135.955556</v>
+      </c>
+      <c r="N10">
+        <v>407.866668</v>
+      </c>
+      <c r="O10">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="P10">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="Q10">
+        <v>321.526324739972</v>
+      </c>
+      <c r="R10">
+        <v>2893.736922659748</v>
+      </c>
+      <c r="S10">
+        <v>0.2341958366365356</v>
+      </c>
+      <c r="T10">
+        <v>0.2341958366365356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.364937</v>
+      </c>
+      <c r="H11">
+        <v>7.094811</v>
+      </c>
+      <c r="I11">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="J11">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.449122</v>
+      </c>
+      <c r="N11">
+        <v>1.347366</v>
+      </c>
+      <c r="O11">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P11">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q11">
+        <v>1.062145235314</v>
+      </c>
+      <c r="R11">
+        <v>9.559307117826</v>
+      </c>
+      <c r="S11">
+        <v>0.000773653579423221</v>
+      </c>
+      <c r="T11">
+        <v>0.0007736535794232209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.364937</v>
+      </c>
+      <c r="H12">
+        <v>7.094811</v>
+      </c>
+      <c r="I12">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="J12">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N12">
+        <v>169.150996</v>
+      </c>
+      <c r="O12">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P12">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q12">
+        <v>133.3438163424173</v>
+      </c>
+      <c r="R12">
+        <v>1200.094347081756</v>
+      </c>
+      <c r="S12">
+        <v>0.09712600252522546</v>
+      </c>
+      <c r="T12">
+        <v>0.09712600252522544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.364937</v>
+      </c>
+      <c r="H13">
+        <v>7.094811</v>
+      </c>
+      <c r="I13">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="J13">
+        <v>0.3370849504260496</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.896484</v>
+      </c>
+      <c r="N13">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P13">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q13">
+        <v>6.850002181507999</v>
+      </c>
+      <c r="R13">
+        <v>61.65001963357199</v>
+      </c>
+      <c r="S13">
+        <v>0.004989457684865334</v>
+      </c>
+      <c r="T13">
+        <v>0.004989457684865334</v>
       </c>
     </row>
   </sheetData>
